--- a/input/Linear2.xlsx
+++ b/input/Linear2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0586579944380948</v>
+        <v>0.1101440972136105</v>
       </c>
       <c r="C2" t="n">
-        <v>2.817266400680555</v>
+        <v>2.223899453410976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1796104147308535</v>
+        <v>0.1077033850415691</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1117939179535055</v>
+        <v>0.1475133730083216</v>
       </c>
       <c r="C3" t="n">
-        <v>3.560693783791907</v>
+        <v>3.717662391659502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1026582569197855</v>
+        <v>0.2533868249348961</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1044057696602488</v>
+        <v>0.0782670147820092</v>
       </c>
       <c r="C4" t="n">
-        <v>4.565426051188254</v>
+        <v>4.555398714672766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1945936462992725</v>
+        <v>0.1672945128040517</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1298967605806851</v>
+        <v>0.1047504286283093</v>
       </c>
       <c r="C5" t="n">
-        <v>6.13963090212557</v>
+        <v>6.262020263624557</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2731674692698001</v>
+        <v>0.1192100483910533</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1282346461985504</v>
+        <v>0.05231663667223318</v>
       </c>
       <c r="C6" t="n">
-        <v>6.415312641916045</v>
+        <v>7.271091143955386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1236849110501539</v>
+        <v>0.1489664110061631</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1236485331160898</v>
+        <v>0.128124222806019</v>
       </c>
       <c r="C7" t="n">
-        <v>8.182046740235544</v>
+        <v>8.593461662935168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1819568119301227</v>
+        <v>0.2832036018017433</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>3.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0639437652572085</v>
+        <v>0.0791793114883132</v>
       </c>
       <c r="C8" t="n">
-        <v>9.578754449706517</v>
+        <v>10.02817605633033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2442008019781798</v>
+        <v>0.1042301865793677</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1349523091791667</v>
+        <v>0.120806835183015</v>
       </c>
       <c r="C9" t="n">
-        <v>10.91165101837401</v>
+        <v>11.12898899860832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2612677464484978</v>
+        <v>0.1658036729864698</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1220980514483202</v>
+        <v>0.05962567344995266</v>
       </c>
       <c r="C10" t="n">
-        <v>12.90549991360816</v>
+        <v>12.33068157201087</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1003422029994697</v>
+        <v>0.2783023277974669</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08138463771888013</v>
+        <v>0.08795022932940902</v>
       </c>
       <c r="C11" t="n">
-        <v>13.72132161070049</v>
+        <v>13.64120324978665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1883831833950037</v>
+        <v>0.1144082282813273</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>5.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07895299671480022</v>
+        <v>0.05218613861180674</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8428166634945</v>
+        <v>14.82355532846044</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2988332009606796</v>
+        <v>0.2269846343965896</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="n">
-        <v>0.131693602257633</v>
+        <v>0.06130342491592651</v>
       </c>
       <c r="C13" t="n">
-        <v>16.35079733361455</v>
+        <v>15.67666829356109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1367445178530931</v>
+        <v>0.1988834766327157</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>6.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06835271692179548</v>
+        <v>0.09267940946585032</v>
       </c>
       <c r="C14" t="n">
-        <v>17.45090891137038</v>
+        <v>17.45045298248814</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1715522726176732</v>
+        <v>0.2491243864510206</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06409211891596282</v>
+        <v>0.133482360147976</v>
       </c>
       <c r="C15" t="n">
-        <v>18.39090113356387</v>
+        <v>18.32610243922323</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1173371718571335</v>
+        <v>0.2495338327241333</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>7.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08865112918648532</v>
+        <v>0.1138516941377553</v>
       </c>
       <c r="C16" t="n">
-        <v>18.98880985366283</v>
+        <v>19.57407349875002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1893138288396009</v>
+        <v>0.2722374951570674</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1141352631619063</v>
+        <v>0.07539235467898789</v>
       </c>
       <c r="C17" t="n">
-        <v>21.07966181967642</v>
+        <v>21.24512124444964</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2313510780183153</v>
+        <v>0.2486234090018789</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>8.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1170060213799091</v>
+        <v>0.05463635605916428</v>
       </c>
       <c r="C18" t="n">
-        <v>22.04714036417483</v>
+        <v>22.22618526947914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1227419201283351</v>
+        <v>0.1669028779207616</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1416086709942573</v>
+        <v>0.07971880613462326</v>
       </c>
       <c r="C19" t="n">
-        <v>23.4479025994779</v>
+        <v>23.21027939671141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1874264093645886</v>
+        <v>0.2712061299813804</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>9.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05107558932304516</v>
+        <v>0.1400059669297661</v>
       </c>
       <c r="C20" t="n">
-        <v>24.65771530407612</v>
+        <v>24.9889010220153</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1080356861430006</v>
+        <v>0.2446167853980206</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06896894758816061</v>
+        <v>0.05120723743929776</v>
       </c>
       <c r="C21" t="n">
-        <v>26.35059201956804</v>
+        <v>25.95710958700444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1398943612698747</v>
+        <v>0.2617788206634494</v>
       </c>
     </row>
   </sheetData>
